--- a/project4/Project4.xlsx
+++ b/project4/Project4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhemi\Desktop\GWU\Graduate Term 1\Design &amp; Analysis of Algorithm\project4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhemi\Documents\GitHub\csci-6212\project4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A211EE40-DF3C-4C01-B71E-29802BC41AF7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB452E-88A9-4E56-AE1A-D8E408411CE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="168">
   <si>
     <t>candidates number</t>
   </si>
@@ -40,7 +40,7 @@
     <t>avg best profit</t>
   </si>
   <si>
-    <t>temp accuracy</t>
+    <t>actual to max profit ratio</t>
   </si>
   <si>
     <t>1000</t>
@@ -49,16 +49,16 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.057</t>
-  </si>
-  <si>
-    <t>49955.356</t>
-  </si>
-  <si>
-    <t>94913.933</t>
-  </si>
-  <si>
-    <t>0.5263948216451515</t>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>49695.822</t>
+  </si>
+  <si>
+    <t>95711.339</t>
+  </si>
+  <si>
+    <t>0.5189635757285822</t>
   </si>
   <si>
     <t>100</t>
@@ -67,460 +67,463 @@
     <t>0.0</t>
   </si>
   <si>
-    <t>94775.756</t>
+    <t>95726.036</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>94716.356</t>
+    <t>95765.464</t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t>94756.074</t>
+    <t>95850.881</t>
   </si>
   <si>
     <t>400</t>
   </si>
   <si>
-    <t>94711.305</t>
+    <t>95819.146</t>
   </si>
   <si>
     <t>500</t>
   </si>
   <si>
-    <t>94797.674</t>
+    <t>95666.498</t>
   </si>
   <si>
     <t>600</t>
   </si>
   <si>
-    <t>94640.142</t>
+    <t>95741.08</t>
   </si>
   <si>
     <t>700</t>
   </si>
   <si>
-    <t>94748.384</t>
+    <t>95871.121</t>
   </si>
   <si>
     <t>800</t>
   </si>
   <si>
-    <t>94724.99</t>
+    <t>95666.852</t>
   </si>
   <si>
     <t>900</t>
   </si>
   <si>
-    <t>94885.273</t>
-  </si>
-  <si>
-    <t>94796.781</t>
-  </si>
-  <si>
-    <t>0.053</t>
-  </si>
-  <si>
-    <t>50362.612</t>
-  </si>
-  <si>
-    <t>94844.361</t>
-  </si>
-  <si>
-    <t>0.5311327770606684</t>
+    <t>95821.03</t>
+  </si>
+  <si>
+    <t>95791.684</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>48746.062</t>
+  </si>
+  <si>
+    <t>95862.044</t>
+  </si>
+  <si>
+    <t>0.5083363671230426</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>55736.598</t>
-  </si>
-  <si>
-    <t>94772.319</t>
-  </si>
-  <si>
-    <t>0.5903928612644022</t>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>54963.414</t>
+  </si>
+  <si>
+    <t>95737.243</t>
+  </si>
+  <si>
+    <t>0.5776953801246885</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>24098.436</t>
-  </si>
-  <si>
-    <t>94778.268</t>
-  </si>
-  <si>
-    <t>0.25711805842656094</t>
+    <t>21484.813</t>
+  </si>
+  <si>
+    <t>95882.046</t>
+  </si>
+  <si>
+    <t>0.22709085328401601</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>6276.113</t>
-  </si>
-  <si>
-    <t>94733.913</t>
-  </si>
-  <si>
-    <t>0.06741057470425697</t>
+    <t>6388.137</t>
+  </si>
+  <si>
+    <t>95787.012</t>
+  </si>
+  <si>
+    <t>0.06815602543937738</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>1493.001</t>
-  </si>
-  <si>
-    <t>94844.292</t>
-  </si>
-  <si>
-    <t>0.016236247669591808</t>
+    <t>1060.242</t>
+  </si>
+  <si>
+    <t>95843.914</t>
+  </si>
+  <si>
+    <t>0.011410334372971901</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>345.416</t>
-  </si>
-  <si>
-    <t>94768.605</t>
-  </si>
-  <si>
-    <t>0.0037867766591169767</t>
+    <t>436.335</t>
+  </si>
+  <si>
+    <t>95859.755</t>
+  </si>
+  <si>
+    <t>0.004720803494598083</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>94888.627</t>
+    <t>95772.572</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>94815.837</t>
+    <t>95736.578</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>94872.05</t>
+    <t>95781.45</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>94744.547</t>
-  </si>
-  <si>
-    <t>94739.062</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>51270.749</t>
-  </si>
-  <si>
-    <t>94823.441</t>
-  </si>
-  <si>
-    <t>0.5405469768276092</t>
+    <t>95797.398</t>
+  </si>
+  <si>
+    <t>95814.034</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>49308.017</t>
+  </si>
+  <si>
+    <t>95791.49</t>
+  </si>
+  <si>
+    <t>0.5143900807706482</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>70579.579</t>
-  </si>
-  <si>
-    <t>94774.638</t>
-  </si>
-  <si>
-    <t>0.744986725806199</t>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>70047.269</t>
+  </si>
+  <si>
+    <t>95659.156</t>
+  </si>
+  <si>
+    <t>0.7322208845407489</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>73190.747</t>
-  </si>
-  <si>
-    <t>94802.189</t>
-  </si>
-  <si>
-    <t>0.7730265052364209</t>
+    <t>0.238</t>
+  </si>
+  <si>
+    <t>73918.369</t>
+  </si>
+  <si>
+    <t>95850.941</t>
+  </si>
+  <si>
+    <t>0.7721607448500363</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>0.296</t>
-  </si>
-  <si>
-    <t>73715.604</t>
-  </si>
-  <si>
-    <t>94770.873</t>
-  </si>
-  <si>
-    <t>0.7785493014286825</t>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>74469.875</t>
+  </si>
+  <si>
+    <t>95583.266</t>
+  </si>
+  <si>
+    <t>0.7801832731202949</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>73280.776</t>
-  </si>
-  <si>
-    <t>94923.397</t>
-  </si>
-  <si>
-    <t>0.7734663278118373</t>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>70595.981</t>
+  </si>
+  <si>
+    <t>95864.385</t>
+  </si>
+  <si>
+    <t>0.738156200230131</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>71531.216</t>
-  </si>
-  <si>
-    <t>94859.316</t>
-  </si>
-  <si>
-    <t>0.7552963745248518</t>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>70898.416</t>
+  </si>
+  <si>
+    <t>95640.982</t>
+  </si>
+  <si>
+    <t>0.7433380205902566</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>68998.093</t>
-  </si>
-  <si>
-    <t>94857.664</t>
-  </si>
-  <si>
-    <t>0.7296419967361307</t>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>66140.128</t>
+  </si>
+  <si>
+    <t>95836.944</t>
+  </si>
+  <si>
+    <t>0.6929659630890003</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>61488.336</t>
-  </si>
-  <si>
-    <t>94858.449</t>
-  </si>
-  <si>
-    <t>0.6508295822443608</t>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>63801.602</t>
+  </si>
+  <si>
+    <t>95854.05</t>
+  </si>
+  <si>
+    <t>0.6683371512207791</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>62394.325</t>
-  </si>
-  <si>
-    <t>94899.201</t>
-  </si>
-  <si>
-    <t>0.6593311291967386</t>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>60290.671</t>
+  </si>
+  <si>
+    <t>95756.985</t>
+  </si>
+  <si>
+    <t>0.6325484065039301</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>60366.619</t>
-  </si>
-  <si>
-    <t>94668.606</t>
-  </si>
-  <si>
-    <t>0.6401490381215734</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>55871.711</t>
-  </si>
-  <si>
-    <t>94864.256</t>
-  </si>
-  <si>
-    <t>0.5914128142981259</t>
+    <t>0.318</t>
+  </si>
+  <si>
+    <t>55835.882</t>
+  </si>
+  <si>
+    <t>95837.515</t>
+  </si>
+  <si>
+    <t>0.5859152776897941</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>50166.431</t>
+  </si>
+  <si>
+    <t>95817.637</t>
+  </si>
+  <si>
+    <t>0.5270517095358713</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>0.328</t>
-  </si>
-  <si>
-    <t>50457.27</t>
-  </si>
-  <si>
-    <t>94795.073</t>
-  </si>
-  <si>
-    <t>0.5357976949245654</t>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>49042.363</t>
+  </si>
+  <si>
+    <t>95892.283</t>
+  </si>
+  <si>
+    <t>0.5144139610648054</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>48144.482</t>
-  </si>
-  <si>
-    <t>94753.275</t>
-  </si>
-  <si>
-    <t>0.5106581072794555</t>
+    <t>0.293</t>
+  </si>
+  <si>
+    <t>46118.878</t>
+  </si>
+  <si>
+    <t>95803.003</t>
+  </si>
+  <si>
+    <t>0.48478654936784005</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>43756.866</t>
-  </si>
-  <si>
-    <t>94866.072</t>
-  </si>
-  <si>
-    <t>0.4640939570518389</t>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>44722.062</t>
+  </si>
+  <si>
+    <t>95768.577</t>
+  </si>
+  <si>
+    <t>0.4705331804663463</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>0.268</t>
-  </si>
-  <si>
-    <t>41819.874</t>
-  </si>
-  <si>
-    <t>94752.936</t>
-  </si>
-  <si>
-    <t>0.44451347116056816</t>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>36884.056</t>
+  </si>
+  <si>
+    <t>95911.218</t>
+  </si>
+  <si>
+    <t>0.38823471437537216</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>39863.319</t>
-  </si>
-  <si>
-    <t>94694.247</t>
-  </si>
-  <si>
-    <t>0.4241190741115757</t>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>36495.495</t>
+  </si>
+  <si>
+    <t>95847.81</t>
+  </si>
+  <si>
+    <t>0.3842725456090188</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>37778.694</t>
-  </si>
-  <si>
-    <t>94664.444</t>
-  </si>
-  <si>
-    <t>0.40215478103556146</t>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>33325.205</t>
+  </si>
+  <si>
+    <t>95735.186</t>
+  </si>
+  <si>
+    <t>0.3513419660906794</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>0.208</t>
-  </si>
-  <si>
-    <t>31416.116</t>
-  </si>
-  <si>
-    <t>94823.962</t>
-  </si>
-  <si>
-    <t>0.33457907138602405</t>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>31241.681</t>
+  </si>
+  <si>
+    <t>95777.256</t>
+  </si>
+  <si>
+    <t>0.3299942875625817</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>30201.676</t>
-  </si>
-  <si>
-    <t>94770.335</t>
-  </si>
-  <si>
-    <t>0.32167447408185</t>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>30940.774</t>
+  </si>
+  <si>
+    <t>95832.233</t>
+  </si>
+  <si>
+    <t>0.3262637030532462</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>26211.582</t>
-  </si>
-  <si>
-    <t>94863.671</t>
-  </si>
-  <si>
-    <t>0.2789217210875572</t>
-  </si>
-  <si>
-    <t>25025.155</t>
-  </si>
-  <si>
-    <t>94903.739</t>
-  </si>
-  <si>
-    <t>0.2665855517091605</t>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>26199.466</t>
+  </si>
+  <si>
+    <t>95650.519</t>
+  </si>
+  <si>
+    <t>0.27767498753401265</t>
+  </si>
+  <si>
+    <t>26144.686</t>
+  </si>
+  <si>
+    <t>95759.415</t>
+  </si>
+  <si>
+    <t>0.27637342112054575</t>
   </si>
 </sst>
 </file>
@@ -863,7 +866,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,16 +1118,16 @@
         <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1135,19 +1138,19 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1158,19 +1161,19 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1207,16 +1210,16 @@
         <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1227,19 +1230,19 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1250,19 +1253,19 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,19 +1276,19 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1296,19 +1299,19 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1319,19 +1322,19 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1342,19 +1345,19 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1365,19 +1368,19 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1388,19 +1391,19 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1411,19 +1414,19 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1463,13 +1466,13 @@
         <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
